--- a/data/human/LSR1RoBVisuals/robacceptability.xlsx
+++ b/data/human/LSR1RoBVisuals/robacceptability.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfriedrich\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfrie\Documents\GitHub\LSR1_anhedonia_H\data\human\LSR1RoBVisuals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0123590-F550-475F-959E-D7B7DB94F7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DEE519-C788-42F9-A448-0D5DFC4A13A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="560" windowWidth="15270" windowHeight="10240" xr2:uid="{0827813D-86FB-432F-BF21-B951B70A2649}"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="18780" windowHeight="12792" xr2:uid="{0827813D-86FB-432F-BF21-B951B70A2649}"/>
   </bookViews>
   <sheets>
     <sheet name="acceptability" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="62">
   <si>
     <t>Study</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>Zarate (2006)</t>
+  </si>
+  <si>
+    <t>Clayton (2006a)</t>
+  </si>
+  <si>
+    <t>Clayton (2006b)</t>
   </si>
 </sst>
 </file>
@@ -265,7 +271,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,6 +282,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -388,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -451,6 +463,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,9 +485,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -509,7 +525,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -615,7 +631,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -757,7 +773,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -765,18 +781,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51AE53B-7F11-481B-ACFA-AC416401C5D8}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A12" sqref="A12:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="9" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -799,7 +815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -822,7 +838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -845,7 +861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>12</v>
       </c>
@@ -868,7 +884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
@@ -891,7 +907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>14</v>
       </c>
@@ -914,7 +930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>15</v>
       </c>
@@ -937,7 +953,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>16</v>
       </c>
@@ -960,7 +976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>17</v>
       </c>
@@ -983,7 +999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>18</v>
       </c>
@@ -1006,7 +1022,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>19</v>
       </c>
@@ -1029,923 +1045,969 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A13" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="18" t="s">
+      <c r="B14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="17" t="s">
+      <c r="B15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="18" t="s">
+      <c r="B16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="17" t="s">
+      <c r="B17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="18" t="s">
+      <c r="B18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="17" t="s">
+      <c r="B19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="18" t="s">
+      <c r="B20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="17" t="s">
+      <c r="B21" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="20" t="s">
+      <c r="B22" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="17" t="s">
+      <c r="B23" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="18" t="s">
+      <c r="B24" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="17" t="s">
+      <c r="B25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="18" t="s">
+      <c r="B26" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="17" t="s">
+      <c r="B27" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="18" t="s">
+      <c r="B28" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A29" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="17" t="s">
+      <c r="B29" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="18" t="s">
+      <c r="B30" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A31" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="17" t="s">
+      <c r="B31" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="18" t="s">
+      <c r="B32" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="17" t="s">
+      <c r="B33" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="18" t="s">
+      <c r="B34" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A35" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="17" t="s">
+      <c r="B35" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="18" t="s">
+      <c r="B36" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A37" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="17" t="s">
+      <c r="B37" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="18" t="s">
+      <c r="B38" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A39" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="22" t="s">
+      <c r="B39" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A40" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="23" t="s">
+      <c r="B40" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A41" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="24" t="s">
+      <c r="B41" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A42" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="18" t="s">
+      <c r="B42" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A43" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="17" t="s">
+      <c r="B43" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A44" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="18" t="s">
+      <c r="B44" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A45" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="17" t="s">
+      <c r="B45" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A46" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="18" t="s">
+      <c r="B46" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A47" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="17" t="s">
+      <c r="B47" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A48" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="17" t="s">
+      <c r="B48" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A49" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="23" t="s">
+      <c r="B49" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A50" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="22" t="s">
+      <c r="B50" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A51" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="19" t="s">
+      <c r="B51" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="19" t="s">
+      <c r="E51" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="19" t="s">
+      <c r="F51" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="19" t="s">
+      <c r="G51" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="18" t="s">
+    <row r="52" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A52" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="17" t="s">
+      <c r="B52" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A53" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51" s="5" t="s">
+      <c r="B53" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="5" t="s">
         <v>11</v>
       </c>
     </row>
